--- a/INSTALACIONES ESPECIALES/07 CRONOGRAMA/PROGRAMACION MENSUAL MAYO.xlsx
+++ b/INSTALACIONES ESPECIALES/07 CRONOGRAMA/PROGRAMACION MENSUAL MAYO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\INSTALACIONES ESPECIALES\07 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA729522-9402-4026-B839-5E14B94A78D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F98D110-FB31-46D9-9ACF-8DA9133B472E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E5128582-54F2-486E-A8E5-318E67CC1C0C}"/>
   </bookViews>
@@ -540,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,6 +556,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -601,24 +613,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,77 +953,77 @@
   <sheetData>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1041,16 +1042,16 @@
       <c r="L7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="7">
         <v>44606</v>
       </c>
@@ -1069,17 +1070,17 @@
       <c r="L8" s="7">
         <v>44611</v>
       </c>
-      <c r="M8" s="28"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="4"/>
@@ -1089,13 +1090,13 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1105,13 +1106,13 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="5"/>
@@ -1121,13 +1122,13 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="5"/>
@@ -1137,13 +1138,13 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="5"/>
@@ -1153,13 +1154,13 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="5"/>
@@ -1169,13 +1170,13 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="5"/>
@@ -1185,13 +1186,13 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="5"/>
@@ -1201,13 +1202,13 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="5"/>
@@ -1217,13 +1218,13 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="5"/>
@@ -1233,13 +1234,13 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="5"/>
@@ -1250,13 +1251,13 @@
     </row>
     <row r="20" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="4"/>
@@ -1266,13 +1267,13 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1282,13 +1283,13 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="5"/>
@@ -1298,13 +1299,13 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="5"/>
@@ -1314,13 +1315,13 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="5"/>
@@ -1330,13 +1331,13 @@
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="5"/>
@@ -1346,13 +1347,13 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="5"/>
@@ -1362,13 +1363,13 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="5"/>
@@ -1378,13 +1379,13 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="5"/>
@@ -1394,13 +1395,13 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="5"/>
@@ -1410,13 +1411,13 @@
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="5"/>
@@ -1427,13 +1428,13 @@
     </row>
     <row r="31" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="4"/>
@@ -1443,13 +1444,13 @@
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="5"/>
@@ -1459,13 +1460,13 @@
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="5"/>
@@ -1475,13 +1476,13 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="5"/>
@@ -1491,13 +1492,13 @@
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="5"/>
@@ -1507,13 +1508,13 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -1523,13 +1524,13 @@
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -1540,13 +1541,13 @@
     </row>
     <row r="38" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -1556,13 +1557,13 @@
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -1572,13 +1573,13 @@
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -1589,13 +1590,13 @@
     </row>
     <row r="41" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -1605,13 +1606,13 @@
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -1621,13 +1622,13 @@
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -1638,13 +1639,13 @@
     </row>
     <row r="44" spans="1:13" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -1655,13 +1656,13 @@
     </row>
     <row r="45" spans="1:13" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -1672,13 +1673,13 @@
     </row>
     <row r="46" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -1688,13 +1689,13 @@
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="10"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -1704,13 +1705,13 @@
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="5"/>
       <c r="H48" s="10"/>
       <c r="I48" s="5"/>
@@ -1720,13 +1721,13 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="5"/>
       <c r="H49" s="10"/>
       <c r="I49" s="5"/>
@@ -1736,13 +1737,13 @@
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="10"/>
@@ -1752,13 +1753,13 @@
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -1768,13 +1769,13 @@
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -1784,13 +1785,13 @@
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -1800,11 +1801,11 @@
       <c r="M53" s="5"/>
     </row>
     <row r="54" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -1814,11 +1815,11 @@
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -1828,11 +1829,11 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -1842,11 +1843,11 @@
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -1856,11 +1857,11 @@
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -1870,11 +1871,11 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -1884,11 +1885,11 @@
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -1898,11 +1899,11 @@
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -1912,11 +1913,11 @@
       <c r="M61" s="5"/>
     </row>
     <row r="62" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -1926,11 +1927,11 @@
       <c r="M62" s="5"/>
     </row>
     <row r="63" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -1940,11 +1941,11 @@
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="2:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -1955,30 +1956,27 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="B3:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B31:F31"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
@@ -1995,27 +1993,30 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="B3:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2027,7 +2028,7 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,7 +2037,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2056,7 +2057,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="10"/>
@@ -2065,7 +2066,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="10"/>
@@ -2074,7 +2075,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="5"/>
@@ -2083,7 +2084,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="5"/>
@@ -2092,7 +2093,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="5"/>
@@ -2101,7 +2102,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="5"/>
@@ -2110,7 +2111,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="5"/>
@@ -2119,7 +2120,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="5"/>
@@ -2128,7 +2129,7 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="5"/>
